--- a/assets/excel/Daftar Kwitansi.xlsx
+++ b/assets/excel/Daftar Kwitansi.xlsx
@@ -53,7 +53,7 @@
     <t>TA</t>
   </si>
   <si>
-    <t>SPD-001/PPK.4/07/2019</t>
+    <t>SPD-001/PPK./07/2019</t>
   </si>
   <si>
     <t>2019-07-25</t>
@@ -62,10 +62,10 @@
     <t>Edi Setiawan, Ak. / 197209051993021001</t>
   </si>
   <si>
-    <t>Jakarta</t>
-  </si>
-  <si>
-    <t>Dalam Negeri</t>
+    <t>Inggris</t>
+  </si>
+  <si>
+    <t>Luar Negeri</t>
   </si>
   <si>
     <t>2019-07-26</t>

--- a/assets/excel/Daftar Kwitansi.xlsx
+++ b/assets/excel/Daftar Kwitansi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>DAFTAR KWITANSI</t>
   </si>
@@ -32,7 +32,7 @@
     <t>TANGGAL</t>
   </si>
   <si>
-    <t>PEGAWAI / NIP</t>
+    <t>PEGAWAI - NIP/NRP</t>
   </si>
   <si>
     <t>TUJUAN</t>
@@ -53,25 +53,121 @@
     <t>TA</t>
   </si>
   <si>
-    <t>SPD-001/PPK./07/2019</t>
-  </si>
-  <si>
-    <t>2019-07-25</t>
+    <t>SPD-001/PPK.4/09/2019</t>
+  </si>
+  <si>
+    <t>2019-09-11</t>
   </si>
   <si>
     <t>Edi Setiawan, Ak. / 197209051993021001</t>
   </si>
   <si>
-    <t>Inggris</t>
-  </si>
-  <si>
-    <t>Luar Negeri</t>
-  </si>
-  <si>
-    <t>2019-07-26</t>
-  </si>
-  <si>
-    <t>Muhammad Farhan Azhar / 199910082018121003</t>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Dalam Negeri</t>
+  </si>
+  <si>
+    <t>Tri Jananto / 198601282018011002</t>
+  </si>
+  <si>
+    <t>SPD-002/PPK.4/09/2019</t>
+  </si>
+  <si>
+    <t>2019-09-04</t>
+  </si>
+  <si>
+    <t>Yahya Nuur Hidayat / 199403032019021003</t>
+  </si>
+  <si>
+    <t>Semarang</t>
+  </si>
+  <si>
+    <t>2019-09-06</t>
+  </si>
+  <si>
+    <t>Ayudyah Fitriani Hidayat / 200001082018122003</t>
+  </si>
+  <si>
+    <t>SPD-001/PPK.1/09/2019</t>
+  </si>
+  <si>
+    <t>2019-09-16</t>
+  </si>
+  <si>
+    <t>Kian Falenza Fyqra / 199802102018121002</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>2019-09-17</t>
+  </si>
+  <si>
+    <t>2019-09-20</t>
+  </si>
+  <si>
+    <t>SPD-003/PPK.4/09/2019</t>
+  </si>
+  <si>
+    <t>Aulia Amani Wahdah / 199711182018122003</t>
+  </si>
+  <si>
+    <t>Bandar Lampung</t>
+  </si>
+  <si>
+    <t>Ayu Intan N., S.Psi. / 24/SP-24/PPK-2/BNPT/01/2019</t>
+  </si>
+  <si>
+    <t>Dudih Rahmat Nurdiansyah / 198610012017010311064</t>
+  </si>
+  <si>
+    <t>SPD-005/PPK.4/09/2019</t>
+  </si>
+  <si>
+    <t>Ahmad Zainal Arifin, S.ST., Ak. / 197306231994031001</t>
+  </si>
+  <si>
+    <t>Ambon</t>
+  </si>
+  <si>
+    <t>2019-09-18</t>
+  </si>
+  <si>
+    <t>SPD-006/PPK.4/09/2019</t>
+  </si>
+  <si>
+    <t>Agus Purwanto / 11938/P</t>
+  </si>
+  <si>
+    <t>Medan</t>
+  </si>
+  <si>
+    <t>SPD-007/PPK.4/09/2019</t>
+  </si>
+  <si>
+    <t>Iwan Dwi Susanto, S.E., M.Ak. / 197705242002121001</t>
+  </si>
+  <si>
+    <t>Surabaya</t>
+  </si>
+  <si>
+    <t>2019-09-19</t>
+  </si>
+  <si>
+    <t>2019-09-21</t>
+  </si>
+  <si>
+    <t>SPD-008/PPK.4/09/2019</t>
+  </si>
+  <si>
+    <t>Syaiful Rachman, Ak. / 196811081989031001</t>
+  </si>
+  <si>
+    <t>2019-09-23</t>
+  </si>
+  <si>
+    <t>2019-09-25</t>
   </si>
 </sst>
 </file>
@@ -410,7 +506,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,10 +577,10 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J4">
         <v>1080000</v>
@@ -507,7 +603,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -516,15 +612,400 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J5">
         <v>1080000</v>
       </c>
       <c r="K5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>6262000</v>
+      </c>
+      <c r="K6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <v>6262000</v>
+      </c>
+      <c r="K7">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8">
+        <v>4880000</v>
+      </c>
+      <c r="K8">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9">
+        <v>5290000</v>
+      </c>
+      <c r="K9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10">
+        <v>5290000</v>
+      </c>
+      <c r="K10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11">
+        <v>5240000</v>
+      </c>
+      <c r="K11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12">
+        <v>11171000</v>
+      </c>
+      <c r="K12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13">
+        <v>10600000</v>
+      </c>
+      <c r="K13">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14">
+        <v>8750000</v>
+      </c>
+      <c r="K14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>10568000</v>
+      </c>
+      <c r="K15">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>10568000</v>
+      </c>
+      <c r="K16">
         <v>2019</v>
       </c>
     </row>
